--- a/papers ref/edited-treatment-threshold-graphs-excel-544300525.xlsx
+++ b/papers ref/edited-treatment-threshold-graphs-excel-544300525.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arielhasidim/dev.nosync/bili/papers ref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B016D81-2893-FF4D-BD26-67AB39BF461E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFD666B-8521-F64D-9ED7-BEC51C1ADD9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3020" yWindow="760" windowWidth="24200" windowHeight="17480" activeTab="1" xr2:uid="{839DB09B-7BD3-8A40-B33D-EC22B8ED1715}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" activeTab="1" xr2:uid="{839DB09B-7BD3-8A40-B33D-EC22B8ED1715}"/>
   </bookViews>
   <sheets>
     <sheet name="Treatment threshold graphs" sheetId="2" r:id="rId1"/>
@@ -314,7 +314,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -367,6 +367,7 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -5760,10 +5761,13 @@
   <dimension ref="A1:E338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="10.83203125" style="31"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
@@ -5776,7 +5780,7 @@
       <c r="D1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="29">
@@ -5791,7 +5795,7 @@
       <c r="D2" s="29">
         <v>80</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="30">
         <v>4.67836257</v>
       </c>
     </row>
@@ -5808,7 +5812,7 @@
       <c r="D3" s="29">
         <v>83.611111100000002</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="30">
         <v>4.8895386600000004</v>
       </c>
     </row>
@@ -5825,7 +5829,7 @@
       <c r="D4" s="29">
         <v>87.222222200000004</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="30">
         <v>5.1007147499999999</v>
       </c>
     </row>
@@ -5842,7 +5846,7 @@
       <c r="D5" s="29">
         <v>90.833333300000007</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="30">
         <v>5.3118908400000002</v>
       </c>
     </row>
@@ -5859,7 +5863,7 @@
       <c r="D6" s="29">
         <v>94.444444399999995</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="30">
         <v>5.5230669299999997</v>
       </c>
     </row>
@@ -5876,7 +5880,7 @@
       <c r="D7" s="29">
         <v>98.055555600000005</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="30">
         <v>5.7342430100000001</v>
       </c>
     </row>
@@ -5893,7 +5897,7 @@
       <c r="D8" s="29">
         <v>101.666667</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="30">
         <v>5.9454190999999996</v>
       </c>
     </row>
@@ -5910,7 +5914,7 @@
       <c r="D9" s="29">
         <v>105.277778</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="30">
         <v>6.15659519</v>
       </c>
     </row>
@@ -5927,7 +5931,7 @@
       <c r="D10" s="29">
         <v>108.88888900000001</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="30">
         <v>6.3677712800000004</v>
       </c>
     </row>
@@ -5944,7 +5948,7 @@
       <c r="D11" s="29">
         <v>112.5</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="30">
         <v>6.5789473699999999</v>
       </c>
     </row>
@@ -5961,7 +5965,7 @@
       <c r="D12" s="29">
         <v>116.11111099999999</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="30">
         <v>6.7901234600000002</v>
       </c>
     </row>
@@ -5978,7 +5982,7 @@
       <c r="D13" s="29">
         <v>119.722222</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="30">
         <v>7.0012995499999997</v>
       </c>
     </row>
@@ -5995,7 +5999,7 @@
       <c r="D14" s="29">
         <v>123.333333</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="30">
         <v>7.2124756300000001</v>
       </c>
     </row>
@@ -6012,7 +6016,7 @@
       <c r="D15" s="29">
         <v>126.944444</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="30">
         <v>7.4236517199999996</v>
       </c>
     </row>
@@ -6029,7 +6033,7 @@
       <c r="D16" s="29">
         <v>130.555556</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="30">
         <v>7.63482781</v>
       </c>
     </row>
@@ -6046,7 +6050,7 @@
       <c r="D17" s="29">
         <v>134.16666699999999</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="30">
         <v>7.8460039000000004</v>
       </c>
     </row>
@@ -6063,7 +6067,7 @@
       <c r="D18" s="29">
         <v>137.77777800000001</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="30">
         <v>8.0571799899999998</v>
       </c>
     </row>
@@ -6080,7 +6084,7 @@
       <c r="D19" s="29">
         <v>141.38888900000001</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="30">
         <v>8.2683560800000002</v>
       </c>
     </row>
@@ -6097,7 +6101,7 @@
       <c r="D20" s="29">
         <v>145</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="30">
         <v>8.4795321599999998</v>
       </c>
     </row>
@@ -6114,7 +6118,7 @@
       <c r="D21" s="29">
         <v>148.61111099999999</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="30">
         <v>8.6907082500000001</v>
       </c>
     </row>
@@ -6131,7 +6135,7 @@
       <c r="D22" s="29">
         <v>152.22222199999999</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="30">
         <v>8.9018843400000005</v>
       </c>
     </row>
@@ -6148,7 +6152,7 @@
       <c r="D23" s="29">
         <v>155.83333300000001</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="30">
         <v>9.1130604300000009</v>
       </c>
     </row>
@@ -6165,7 +6169,7 @@
       <c r="D24" s="29">
         <v>159.444444</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="30">
         <v>9.3242365199999995</v>
       </c>
     </row>
@@ -6182,7 +6186,7 @@
       <c r="D25" s="29">
         <v>163.055556</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="30">
         <v>9.5354126099999998</v>
       </c>
     </row>
@@ -6199,7 +6203,7 @@
       <c r="D26" s="29">
         <v>166.66666699999999</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="30">
         <v>9.7465886899999994</v>
       </c>
     </row>
@@ -6216,7 +6220,7 @@
       <c r="D27" s="29">
         <v>170.27777800000001</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E27" s="30">
         <v>9.9577647799999998</v>
       </c>
     </row>
@@ -6233,7 +6237,7 @@
       <c r="D28" s="29">
         <v>173.88888900000001</v>
       </c>
-      <c r="E28" s="29">
+      <c r="E28" s="30">
         <v>10.168940900000001</v>
       </c>
     </row>
@@ -6250,7 +6254,7 @@
       <c r="D29" s="29">
         <v>177.5</v>
       </c>
-      <c r="E29" s="29">
+      <c r="E29" s="30">
         <v>10.380117</v>
       </c>
     </row>
@@ -6267,7 +6271,7 @@
       <c r="D30" s="29">
         <v>181.11111099999999</v>
       </c>
-      <c r="E30" s="29">
+      <c r="E30" s="30">
         <v>10.591293</v>
       </c>
     </row>
@@ -6284,7 +6288,7 @@
       <c r="D31" s="29">
         <v>184.72222199999999</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="30">
         <v>10.8024691</v>
       </c>
     </row>
@@ -6301,7 +6305,7 @@
       <c r="D32" s="29">
         <v>188.33333300000001</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E32" s="30">
         <v>11.013645199999999</v>
       </c>
     </row>
@@ -6318,7 +6322,7 @@
       <c r="D33" s="29">
         <v>191.944444</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="30">
         <v>11.2248213</v>
       </c>
     </row>
@@ -6335,7 +6339,7 @@
       <c r="D34" s="29">
         <v>195.555556</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="30">
         <v>11.4359974</v>
       </c>
     </row>
@@ -6352,7 +6356,7 @@
       <c r="D35" s="29">
         <v>199.16666699999999</v>
       </c>
-      <c r="E35" s="29">
+      <c r="E35" s="30">
         <v>11.647173499999999</v>
       </c>
     </row>
@@ -6369,7 +6373,7 @@
       <c r="D36" s="29">
         <v>202.77777800000001</v>
       </c>
-      <c r="E36" s="29">
+      <c r="E36" s="30">
         <v>11.8583496</v>
       </c>
     </row>
@@ -6386,7 +6390,7 @@
       <c r="D37" s="29">
         <v>206.38888900000001</v>
       </c>
-      <c r="E37" s="29">
+      <c r="E37" s="30">
         <v>12.0695257</v>
       </c>
     </row>
@@ -6403,7 +6407,7 @@
       <c r="D38" s="29">
         <v>210</v>
       </c>
-      <c r="E38" s="29">
+      <c r="E38" s="30">
         <v>12.280701799999999</v>
       </c>
     </row>
@@ -6420,7 +6424,7 @@
       <c r="D39" s="29">
         <v>213.61111099999999</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="30">
         <v>12.491877799999999</v>
       </c>
     </row>
@@ -6437,7 +6441,7 @@
       <c r="D40" s="29">
         <v>217.22222199999999</v>
       </c>
-      <c r="E40" s="29">
+      <c r="E40" s="30">
         <v>12.7030539</v>
       </c>
     </row>
@@ -6454,7 +6458,7 @@
       <c r="D41" s="29">
         <v>220.83333300000001</v>
       </c>
-      <c r="E41" s="29">
+      <c r="E41" s="30">
         <v>12.91423</v>
       </c>
     </row>
@@ -6471,7 +6475,7 @@
       <c r="D42" s="29">
         <v>224.444444</v>
       </c>
-      <c r="E42" s="29">
+      <c r="E42" s="30">
         <v>13.125406099999999</v>
       </c>
     </row>
@@ -6488,7 +6492,7 @@
       <c r="D43" s="29">
         <v>228.055556</v>
       </c>
-      <c r="E43" s="29">
+      <c r="E43" s="30">
         <v>13.3365822</v>
       </c>
     </row>
@@ -6505,7 +6509,7 @@
       <c r="D44" s="29">
         <v>231.66666699999999</v>
       </c>
-      <c r="E44" s="29">
+      <c r="E44" s="30">
         <v>13.5477583</v>
       </c>
     </row>
@@ -6522,7 +6526,7 @@
       <c r="D45" s="29">
         <v>235.27777800000001</v>
       </c>
-      <c r="E45" s="29">
+      <c r="E45" s="30">
         <v>13.758934399999999</v>
       </c>
     </row>
@@ -6539,7 +6543,7 @@
       <c r="D46" s="29">
         <v>238.88888900000001</v>
       </c>
-      <c r="E46" s="29">
+      <c r="E46" s="30">
         <v>13.970110500000001</v>
       </c>
     </row>
@@ -6556,7 +6560,7 @@
       <c r="D47" s="29">
         <v>242.5</v>
       </c>
-      <c r="E47" s="29">
+      <c r="E47" s="30">
         <v>14.181286500000001</v>
       </c>
     </row>
@@ -6573,7 +6577,7 @@
       <c r="D48" s="29">
         <v>246.11111099999999</v>
       </c>
-      <c r="E48" s="29">
+      <c r="E48" s="30">
         <v>14.3924626</v>
       </c>
     </row>
@@ -6590,7 +6594,7 @@
       <c r="D49" s="29">
         <v>249.72222199999999</v>
       </c>
-      <c r="E49" s="29">
+      <c r="E49" s="30">
         <v>14.603638699999999</v>
       </c>
     </row>
@@ -6607,7 +6611,7 @@
       <c r="D50" s="29">
         <v>253.33333300000001</v>
       </c>
-      <c r="E50" s="29">
+      <c r="E50" s="30">
         <v>14.814814800000001</v>
       </c>
     </row>
@@ -6624,7 +6628,7 @@
       <c r="D51" s="29">
         <v>256.94444399999998</v>
       </c>
-      <c r="E51" s="29">
+      <c r="E51" s="30">
         <v>15.0259909</v>
       </c>
     </row>
@@ -6641,7 +6645,7 @@
       <c r="D52" s="29">
         <v>260.55555600000002</v>
       </c>
-      <c r="E52" s="29">
+      <c r="E52" s="30">
         <v>15.237166999999999</v>
       </c>
     </row>
@@ -6658,7 +6662,7 @@
       <c r="D53" s="29">
         <v>264.16666700000002</v>
       </c>
-      <c r="E53" s="29">
+      <c r="E53" s="30">
         <v>15.448343100000001</v>
       </c>
     </row>
@@ -6675,7 +6679,7 @@
       <c r="D54" s="29">
         <v>267.77777800000001</v>
       </c>
-      <c r="E54" s="29">
+      <c r="E54" s="30">
         <v>15.6595192</v>
       </c>
     </row>
@@ -6692,7 +6696,7 @@
       <c r="D55" s="29">
         <v>271.38888900000001</v>
       </c>
-      <c r="E55" s="29">
+      <c r="E55" s="30">
         <v>15.8706953</v>
       </c>
     </row>
@@ -6709,7 +6713,7 @@
       <c r="D56" s="29">
         <v>275</v>
       </c>
-      <c r="E56" s="29">
+      <c r="E56" s="30">
         <v>16.0818713</v>
       </c>
     </row>
@@ -6726,7 +6730,7 @@
       <c r="D57" s="29">
         <v>278.61111099999999</v>
       </c>
-      <c r="E57" s="29">
+      <c r="E57" s="30">
         <v>16.293047399999999</v>
       </c>
     </row>
@@ -6743,7 +6747,7 @@
       <c r="D58" s="29">
         <v>282.22222199999999</v>
       </c>
-      <c r="E58" s="29">
+      <c r="E58" s="30">
         <v>16.504223499999998</v>
       </c>
     </row>
@@ -6760,7 +6764,7 @@
       <c r="D59" s="29">
         <v>285.83333299999998</v>
       </c>
-      <c r="E59" s="29">
+      <c r="E59" s="30">
         <v>16.715399600000001</v>
       </c>
     </row>
@@ -6777,7 +6781,7 @@
       <c r="D60" s="29">
         <v>289.44444399999998</v>
       </c>
-      <c r="E60" s="29">
+      <c r="E60" s="30">
         <v>16.926575700000001</v>
       </c>
     </row>
@@ -6794,7 +6798,7 @@
       <c r="D61" s="29">
         <v>293.05555600000002</v>
       </c>
-      <c r="E61" s="29">
+      <c r="E61" s="30">
         <v>17.1377518</v>
       </c>
     </row>
@@ -6811,7 +6815,7 @@
       <c r="D62" s="29">
         <v>296.66666700000002</v>
       </c>
-      <c r="E62" s="29">
+      <c r="E62" s="30">
         <v>17.3489279</v>
       </c>
     </row>
@@ -6828,7 +6832,7 @@
       <c r="D63" s="29">
         <v>300.27777800000001</v>
       </c>
-      <c r="E63" s="29">
+      <c r="E63" s="30">
         <v>17.560103999999999</v>
       </c>
     </row>
@@ -6845,7 +6849,7 @@
       <c r="D64" s="29">
         <v>303.88888900000001</v>
       </c>
-      <c r="E64" s="29">
+      <c r="E64" s="30">
         <v>17.771280099999998</v>
       </c>
     </row>
@@ -6862,7 +6866,7 @@
       <c r="D65" s="29">
         <v>307.5</v>
       </c>
-      <c r="E65" s="29">
+      <c r="E65" s="30">
         <v>17.9824561</v>
       </c>
     </row>
@@ -6879,7 +6883,7 @@
       <c r="D66" s="29">
         <v>311.11111099999999</v>
       </c>
-      <c r="E66" s="29">
+      <c r="E66" s="30">
         <v>18.1936322</v>
       </c>
     </row>
@@ -6896,7 +6900,7 @@
       <c r="D67" s="29">
         <v>314.72222199999999</v>
       </c>
-      <c r="E67" s="29">
+      <c r="E67" s="30">
         <v>18.404808299999999</v>
       </c>
     </row>
@@ -6913,7 +6917,7 @@
       <c r="D68" s="29">
         <v>318.33333299999998</v>
       </c>
-      <c r="E68" s="29">
+      <c r="E68" s="30">
         <v>18.615984399999999</v>
       </c>
     </row>
@@ -6930,7 +6934,7 @@
       <c r="D69" s="29">
         <v>321.94444399999998</v>
       </c>
-      <c r="E69" s="29">
+      <c r="E69" s="30">
         <v>18.827160500000002</v>
       </c>
     </row>
@@ -6947,7 +6951,7 @@
       <c r="D70" s="29">
         <v>325.55555600000002</v>
       </c>
-      <c r="E70" s="29">
+      <c r="E70" s="30">
         <v>19.038336600000001</v>
       </c>
     </row>
@@ -6964,7 +6968,7 @@
       <c r="D71" s="29">
         <v>329.16666700000002</v>
       </c>
-      <c r="E71" s="29">
+      <c r="E71" s="30">
         <v>19.2495127</v>
       </c>
     </row>
@@ -6981,7 +6985,7 @@
       <c r="D72" s="29">
         <v>332.77777800000001</v>
       </c>
-      <c r="E72" s="29">
+      <c r="E72" s="30">
         <v>19.4606888</v>
       </c>
     </row>
@@ -6998,7 +7002,7 @@
       <c r="D73" s="29">
         <v>336.38888900000001</v>
       </c>
-      <c r="E73" s="29">
+      <c r="E73" s="30">
         <v>19.671864800000002</v>
       </c>
     </row>
@@ -7015,7 +7019,7 @@
       <c r="D74" s="29">
         <v>340</v>
       </c>
-      <c r="E74" s="29">
+      <c r="E74" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7032,7 +7036,7 @@
       <c r="D75" s="29">
         <v>340</v>
       </c>
-      <c r="E75" s="29">
+      <c r="E75" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7049,7 +7053,7 @@
       <c r="D76" s="29">
         <v>340</v>
       </c>
-      <c r="E76" s="29">
+      <c r="E76" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7066,7 +7070,7 @@
       <c r="D77" s="29">
         <v>340</v>
       </c>
-      <c r="E77" s="29">
+      <c r="E77" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7083,7 +7087,7 @@
       <c r="D78" s="29">
         <v>340</v>
       </c>
-      <c r="E78" s="29">
+      <c r="E78" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7100,7 +7104,7 @@
       <c r="D79" s="29">
         <v>340</v>
       </c>
-      <c r="E79" s="29">
+      <c r="E79" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7117,7 +7121,7 @@
       <c r="D80" s="29">
         <v>340</v>
       </c>
-      <c r="E80" s="29">
+      <c r="E80" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7134,7 +7138,7 @@
       <c r="D81" s="29">
         <v>340</v>
       </c>
-      <c r="E81" s="29">
+      <c r="E81" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7151,7 +7155,7 @@
       <c r="D82" s="29">
         <v>340</v>
       </c>
-      <c r="E82" s="29">
+      <c r="E82" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7168,7 +7172,7 @@
       <c r="D83" s="29">
         <v>340</v>
       </c>
-      <c r="E83" s="29">
+      <c r="E83" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7185,7 +7189,7 @@
       <c r="D84" s="29">
         <v>340</v>
       </c>
-      <c r="E84" s="29">
+      <c r="E84" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7202,7 +7206,7 @@
       <c r="D85" s="29">
         <v>340</v>
       </c>
-      <c r="E85" s="29">
+      <c r="E85" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7219,7 +7223,7 @@
       <c r="D86" s="29">
         <v>340</v>
       </c>
-      <c r="E86" s="29">
+      <c r="E86" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7236,7 +7240,7 @@
       <c r="D87" s="29">
         <v>340</v>
       </c>
-      <c r="E87" s="29">
+      <c r="E87" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7253,7 +7257,7 @@
       <c r="D88" s="29">
         <v>340</v>
       </c>
-      <c r="E88" s="29">
+      <c r="E88" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7270,7 +7274,7 @@
       <c r="D89" s="29">
         <v>340</v>
       </c>
-      <c r="E89" s="29">
+      <c r="E89" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7287,7 +7291,7 @@
       <c r="D90" s="29">
         <v>340</v>
       </c>
-      <c r="E90" s="29">
+      <c r="E90" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7304,7 +7308,7 @@
       <c r="D91" s="29">
         <v>340</v>
       </c>
-      <c r="E91" s="29">
+      <c r="E91" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7321,7 +7325,7 @@
       <c r="D92" s="29">
         <v>340</v>
       </c>
-      <c r="E92" s="29">
+      <c r="E92" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7338,7 +7342,7 @@
       <c r="D93" s="29">
         <v>340</v>
       </c>
-      <c r="E93" s="29">
+      <c r="E93" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7355,7 +7359,7 @@
       <c r="D94" s="29">
         <v>340</v>
       </c>
-      <c r="E94" s="29">
+      <c r="E94" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7372,7 +7376,7 @@
       <c r="D95" s="29">
         <v>340</v>
       </c>
-      <c r="E95" s="29">
+      <c r="E95" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7389,7 +7393,7 @@
       <c r="D96" s="29">
         <v>340</v>
       </c>
-      <c r="E96" s="29">
+      <c r="E96" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7406,7 +7410,7 @@
       <c r="D97" s="29">
         <v>340</v>
       </c>
-      <c r="E97" s="29">
+      <c r="E97" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7423,7 +7427,7 @@
       <c r="D98" s="29">
         <v>340</v>
       </c>
-      <c r="E98" s="29">
+      <c r="E98" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7440,7 +7444,7 @@
       <c r="D99" s="29">
         <v>340</v>
       </c>
-      <c r="E99" s="29">
+      <c r="E99" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7457,7 +7461,7 @@
       <c r="D100" s="29">
         <v>340</v>
       </c>
-      <c r="E100" s="29">
+      <c r="E100" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7474,7 +7478,7 @@
       <c r="D101" s="29">
         <v>340</v>
       </c>
-      <c r="E101" s="29">
+      <c r="E101" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7491,7 +7495,7 @@
       <c r="D102" s="29">
         <v>340</v>
       </c>
-      <c r="E102" s="29">
+      <c r="E102" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7508,7 +7512,7 @@
       <c r="D103" s="29">
         <v>340</v>
       </c>
-      <c r="E103" s="29">
+      <c r="E103" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7525,7 +7529,7 @@
       <c r="D104" s="29">
         <v>340</v>
       </c>
-      <c r="E104" s="29">
+      <c r="E104" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7542,7 +7546,7 @@
       <c r="D105" s="29">
         <v>340</v>
       </c>
-      <c r="E105" s="29">
+      <c r="E105" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7559,7 +7563,7 @@
       <c r="D106" s="29">
         <v>340</v>
       </c>
-      <c r="E106" s="29">
+      <c r="E106" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7576,7 +7580,7 @@
       <c r="D107" s="29">
         <v>340</v>
       </c>
-      <c r="E107" s="29">
+      <c r="E107" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7593,7 +7597,7 @@
       <c r="D108" s="29">
         <v>340</v>
       </c>
-      <c r="E108" s="29">
+      <c r="E108" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7610,7 +7614,7 @@
       <c r="D109" s="29">
         <v>340</v>
       </c>
-      <c r="E109" s="29">
+      <c r="E109" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7627,7 +7631,7 @@
       <c r="D110" s="29">
         <v>340</v>
       </c>
-      <c r="E110" s="29">
+      <c r="E110" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7644,7 +7648,7 @@
       <c r="D111" s="29">
         <v>340</v>
       </c>
-      <c r="E111" s="29">
+      <c r="E111" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7661,7 +7665,7 @@
       <c r="D112" s="29">
         <v>340</v>
       </c>
-      <c r="E112" s="29">
+      <c r="E112" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7678,7 +7682,7 @@
       <c r="D113" s="29">
         <v>340</v>
       </c>
-      <c r="E113" s="29">
+      <c r="E113" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7695,7 +7699,7 @@
       <c r="D114" s="29">
         <v>340</v>
       </c>
-      <c r="E114" s="29">
+      <c r="E114" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7712,7 +7716,7 @@
       <c r="D115" s="29">
         <v>340</v>
       </c>
-      <c r="E115" s="29">
+      <c r="E115" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7729,7 +7733,7 @@
       <c r="D116" s="29">
         <v>340</v>
       </c>
-      <c r="E116" s="29">
+      <c r="E116" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7746,7 +7750,7 @@
       <c r="D117" s="29">
         <v>340</v>
       </c>
-      <c r="E117" s="29">
+      <c r="E117" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7763,7 +7767,7 @@
       <c r="D118" s="29">
         <v>340</v>
       </c>
-      <c r="E118" s="29">
+      <c r="E118" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7780,7 +7784,7 @@
       <c r="D119" s="29">
         <v>340</v>
       </c>
-      <c r="E119" s="29">
+      <c r="E119" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7797,7 +7801,7 @@
       <c r="D120" s="29">
         <v>340</v>
       </c>
-      <c r="E120" s="29">
+      <c r="E120" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7814,7 +7818,7 @@
       <c r="D121" s="29">
         <v>340</v>
       </c>
-      <c r="E121" s="29">
+      <c r="E121" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7831,7 +7835,7 @@
       <c r="D122" s="29">
         <v>340</v>
       </c>
-      <c r="E122" s="29">
+      <c r="E122" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7848,7 +7852,7 @@
       <c r="D123" s="29">
         <v>340</v>
       </c>
-      <c r="E123" s="29">
+      <c r="E123" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7865,7 +7869,7 @@
       <c r="D124" s="29">
         <v>340</v>
       </c>
-      <c r="E124" s="29">
+      <c r="E124" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7882,7 +7886,7 @@
       <c r="D125" s="29">
         <v>340</v>
       </c>
-      <c r="E125" s="29">
+      <c r="E125" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7899,7 +7903,7 @@
       <c r="D126" s="29">
         <v>340</v>
       </c>
-      <c r="E126" s="29">
+      <c r="E126" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7916,7 +7920,7 @@
       <c r="D127" s="29">
         <v>340</v>
       </c>
-      <c r="E127" s="29">
+      <c r="E127" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7933,7 +7937,7 @@
       <c r="D128" s="29">
         <v>340</v>
       </c>
-      <c r="E128" s="29">
+      <c r="E128" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7950,7 +7954,7 @@
       <c r="D129" s="29">
         <v>340</v>
       </c>
-      <c r="E129" s="29">
+      <c r="E129" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7967,7 +7971,7 @@
       <c r="D130" s="29">
         <v>340</v>
       </c>
-      <c r="E130" s="29">
+      <c r="E130" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -7984,7 +7988,7 @@
       <c r="D131" s="29">
         <v>340</v>
       </c>
-      <c r="E131" s="29">
+      <c r="E131" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8001,7 +8005,7 @@
       <c r="D132" s="29">
         <v>340</v>
       </c>
-      <c r="E132" s="29">
+      <c r="E132" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8018,7 +8022,7 @@
       <c r="D133" s="29">
         <v>340</v>
       </c>
-      <c r="E133" s="29">
+      <c r="E133" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8035,7 +8039,7 @@
       <c r="D134" s="29">
         <v>340</v>
       </c>
-      <c r="E134" s="29">
+      <c r="E134" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8052,7 +8056,7 @@
       <c r="D135" s="29">
         <v>340</v>
       </c>
-      <c r="E135" s="29">
+      <c r="E135" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8069,7 +8073,7 @@
       <c r="D136" s="29">
         <v>340</v>
       </c>
-      <c r="E136" s="29">
+      <c r="E136" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8086,7 +8090,7 @@
       <c r="D137" s="29">
         <v>340</v>
       </c>
-      <c r="E137" s="29">
+      <c r="E137" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8103,7 +8107,7 @@
       <c r="D138" s="29">
         <v>340</v>
       </c>
-      <c r="E138" s="29">
+      <c r="E138" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8120,7 +8124,7 @@
       <c r="D139" s="29">
         <v>340</v>
       </c>
-      <c r="E139" s="29">
+      <c r="E139" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8137,7 +8141,7 @@
       <c r="D140" s="29">
         <v>340</v>
       </c>
-      <c r="E140" s="29">
+      <c r="E140" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8154,7 +8158,7 @@
       <c r="D141" s="29">
         <v>340</v>
       </c>
-      <c r="E141" s="29">
+      <c r="E141" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8171,7 +8175,7 @@
       <c r="D142" s="29">
         <v>340</v>
       </c>
-      <c r="E142" s="29">
+      <c r="E142" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8188,7 +8192,7 @@
       <c r="D143" s="29">
         <v>340</v>
       </c>
-      <c r="E143" s="29">
+      <c r="E143" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8205,7 +8209,7 @@
       <c r="D144" s="29">
         <v>340</v>
       </c>
-      <c r="E144" s="29">
+      <c r="E144" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8222,7 +8226,7 @@
       <c r="D145" s="29">
         <v>340</v>
       </c>
-      <c r="E145" s="29">
+      <c r="E145" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8239,7 +8243,7 @@
       <c r="D146" s="29">
         <v>340</v>
       </c>
-      <c r="E146" s="29">
+      <c r="E146" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8256,7 +8260,7 @@
       <c r="D147" s="29">
         <v>340</v>
       </c>
-      <c r="E147" s="29">
+      <c r="E147" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8273,7 +8277,7 @@
       <c r="D148" s="29">
         <v>340</v>
       </c>
-      <c r="E148" s="29">
+      <c r="E148" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8290,7 +8294,7 @@
       <c r="D149" s="29">
         <v>340</v>
       </c>
-      <c r="E149" s="29">
+      <c r="E149" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8307,7 +8311,7 @@
       <c r="D150" s="29">
         <v>340</v>
       </c>
-      <c r="E150" s="29">
+      <c r="E150" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8324,7 +8328,7 @@
       <c r="D151" s="29">
         <v>340</v>
       </c>
-      <c r="E151" s="29">
+      <c r="E151" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8341,7 +8345,7 @@
       <c r="D152" s="29">
         <v>340</v>
       </c>
-      <c r="E152" s="29">
+      <c r="E152" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8358,7 +8362,7 @@
       <c r="D153" s="29">
         <v>340</v>
       </c>
-      <c r="E153" s="29">
+      <c r="E153" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8375,7 +8379,7 @@
       <c r="D154" s="29">
         <v>340</v>
       </c>
-      <c r="E154" s="29">
+      <c r="E154" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8392,7 +8396,7 @@
       <c r="D155" s="29">
         <v>340</v>
       </c>
-      <c r="E155" s="29">
+      <c r="E155" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8409,7 +8413,7 @@
       <c r="D156" s="29">
         <v>340</v>
       </c>
-      <c r="E156" s="29">
+      <c r="E156" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8426,7 +8430,7 @@
       <c r="D157" s="29">
         <v>340</v>
       </c>
-      <c r="E157" s="29">
+      <c r="E157" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8443,7 +8447,7 @@
       <c r="D158" s="29">
         <v>340</v>
       </c>
-      <c r="E158" s="29">
+      <c r="E158" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8460,7 +8464,7 @@
       <c r="D159" s="29">
         <v>340</v>
       </c>
-      <c r="E159" s="29">
+      <c r="E159" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8477,7 +8481,7 @@
       <c r="D160" s="29">
         <v>340</v>
       </c>
-      <c r="E160" s="29">
+      <c r="E160" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8494,7 +8498,7 @@
       <c r="D161" s="29">
         <v>340</v>
       </c>
-      <c r="E161" s="29">
+      <c r="E161" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8511,7 +8515,7 @@
       <c r="D162" s="29">
         <v>340</v>
       </c>
-      <c r="E162" s="29">
+      <c r="E162" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8528,7 +8532,7 @@
       <c r="D163" s="29">
         <v>340</v>
       </c>
-      <c r="E163" s="29">
+      <c r="E163" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8545,7 +8549,7 @@
       <c r="D164" s="29">
         <v>340</v>
       </c>
-      <c r="E164" s="29">
+      <c r="E164" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8562,7 +8566,7 @@
       <c r="D165" s="29">
         <v>340</v>
       </c>
-      <c r="E165" s="29">
+      <c r="E165" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8579,7 +8583,7 @@
       <c r="D166" s="29">
         <v>340</v>
       </c>
-      <c r="E166" s="29">
+      <c r="E166" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8596,7 +8600,7 @@
       <c r="D167" s="29">
         <v>340</v>
       </c>
-      <c r="E167" s="29">
+      <c r="E167" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8613,7 +8617,7 @@
       <c r="D168" s="29">
         <v>340</v>
       </c>
-      <c r="E168" s="29">
+      <c r="E168" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8630,7 +8634,7 @@
       <c r="D169" s="29">
         <v>340</v>
       </c>
-      <c r="E169" s="29">
+      <c r="E169" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8647,7 +8651,7 @@
       <c r="D170" s="29">
         <v>340</v>
       </c>
-      <c r="E170" s="29">
+      <c r="E170" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8664,7 +8668,7 @@
       <c r="D171" s="29">
         <v>340</v>
       </c>
-      <c r="E171" s="29">
+      <c r="E171" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8681,7 +8685,7 @@
       <c r="D172" s="29">
         <v>340</v>
       </c>
-      <c r="E172" s="29">
+      <c r="E172" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8698,7 +8702,7 @@
       <c r="D173" s="29">
         <v>340</v>
       </c>
-      <c r="E173" s="29">
+      <c r="E173" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8715,7 +8719,7 @@
       <c r="D174" s="29">
         <v>340</v>
       </c>
-      <c r="E174" s="29">
+      <c r="E174" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8732,7 +8736,7 @@
       <c r="D175" s="29">
         <v>340</v>
       </c>
-      <c r="E175" s="29">
+      <c r="E175" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8749,7 +8753,7 @@
       <c r="D176" s="29">
         <v>340</v>
       </c>
-      <c r="E176" s="29">
+      <c r="E176" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8766,7 +8770,7 @@
       <c r="D177" s="29">
         <v>340</v>
       </c>
-      <c r="E177" s="29">
+      <c r="E177" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8783,7 +8787,7 @@
       <c r="D178" s="29">
         <v>340</v>
       </c>
-      <c r="E178" s="29">
+      <c r="E178" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8800,7 +8804,7 @@
       <c r="D179" s="29">
         <v>340</v>
       </c>
-      <c r="E179" s="29">
+      <c r="E179" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8817,7 +8821,7 @@
       <c r="D180" s="29">
         <v>340</v>
       </c>
-      <c r="E180" s="29">
+      <c r="E180" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8834,7 +8838,7 @@
       <c r="D181" s="29">
         <v>340</v>
       </c>
-      <c r="E181" s="29">
+      <c r="E181" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8851,7 +8855,7 @@
       <c r="D182" s="29">
         <v>340</v>
       </c>
-      <c r="E182" s="29">
+      <c r="E182" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8868,7 +8872,7 @@
       <c r="D183" s="29">
         <v>340</v>
       </c>
-      <c r="E183" s="29">
+      <c r="E183" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8885,7 +8889,7 @@
       <c r="D184" s="29">
         <v>340</v>
       </c>
-      <c r="E184" s="29">
+      <c r="E184" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8902,7 +8906,7 @@
       <c r="D185" s="29">
         <v>340</v>
       </c>
-      <c r="E185" s="29">
+      <c r="E185" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8919,7 +8923,7 @@
       <c r="D186" s="29">
         <v>340</v>
       </c>
-      <c r="E186" s="29">
+      <c r="E186" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8936,7 +8940,7 @@
       <c r="D187" s="29">
         <v>340</v>
       </c>
-      <c r="E187" s="29">
+      <c r="E187" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8953,7 +8957,7 @@
       <c r="D188" s="29">
         <v>340</v>
       </c>
-      <c r="E188" s="29">
+      <c r="E188" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8970,7 +8974,7 @@
       <c r="D189" s="29">
         <v>340</v>
       </c>
-      <c r="E189" s="29">
+      <c r="E189" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -8987,7 +8991,7 @@
       <c r="D190" s="29">
         <v>340</v>
       </c>
-      <c r="E190" s="29">
+      <c r="E190" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9004,7 +9008,7 @@
       <c r="D191" s="29">
         <v>340</v>
       </c>
-      <c r="E191" s="29">
+      <c r="E191" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9021,7 +9025,7 @@
       <c r="D192" s="29">
         <v>340</v>
       </c>
-      <c r="E192" s="29">
+      <c r="E192" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9038,7 +9042,7 @@
       <c r="D193" s="29">
         <v>340</v>
       </c>
-      <c r="E193" s="29">
+      <c r="E193" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9055,7 +9059,7 @@
       <c r="D194" s="29">
         <v>340</v>
       </c>
-      <c r="E194" s="29">
+      <c r="E194" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9072,7 +9076,7 @@
       <c r="D195" s="29">
         <v>340</v>
       </c>
-      <c r="E195" s="29">
+      <c r="E195" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9089,7 +9093,7 @@
       <c r="D196" s="29">
         <v>340</v>
       </c>
-      <c r="E196" s="29">
+      <c r="E196" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9106,7 +9110,7 @@
       <c r="D197" s="29">
         <v>340</v>
       </c>
-      <c r="E197" s="29">
+      <c r="E197" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9123,7 +9127,7 @@
       <c r="D198" s="29">
         <v>340</v>
       </c>
-      <c r="E198" s="29">
+      <c r="E198" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9140,7 +9144,7 @@
       <c r="D199" s="29">
         <v>340</v>
       </c>
-      <c r="E199" s="29">
+      <c r="E199" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9157,7 +9161,7 @@
       <c r="D200" s="29">
         <v>340</v>
       </c>
-      <c r="E200" s="29">
+      <c r="E200" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9174,7 +9178,7 @@
       <c r="D201" s="29">
         <v>340</v>
       </c>
-      <c r="E201" s="29">
+      <c r="E201" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9191,7 +9195,7 @@
       <c r="D202" s="29">
         <v>340</v>
       </c>
-      <c r="E202" s="29">
+      <c r="E202" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9208,7 +9212,7 @@
       <c r="D203" s="29">
         <v>340</v>
       </c>
-      <c r="E203" s="29">
+      <c r="E203" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9225,7 +9229,7 @@
       <c r="D204" s="29">
         <v>340</v>
       </c>
-      <c r="E204" s="29">
+      <c r="E204" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9242,7 +9246,7 @@
       <c r="D205" s="29">
         <v>340</v>
       </c>
-      <c r="E205" s="29">
+      <c r="E205" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9259,7 +9263,7 @@
       <c r="D206" s="29">
         <v>340</v>
       </c>
-      <c r="E206" s="29">
+      <c r="E206" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9276,7 +9280,7 @@
       <c r="D207" s="29">
         <v>340</v>
       </c>
-      <c r="E207" s="29">
+      <c r="E207" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9293,7 +9297,7 @@
       <c r="D208" s="29">
         <v>340</v>
       </c>
-      <c r="E208" s="29">
+      <c r="E208" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9310,7 +9314,7 @@
       <c r="D209" s="29">
         <v>340</v>
       </c>
-      <c r="E209" s="29">
+      <c r="E209" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9327,7 +9331,7 @@
       <c r="D210" s="29">
         <v>340</v>
       </c>
-      <c r="E210" s="29">
+      <c r="E210" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9344,7 +9348,7 @@
       <c r="D211" s="29">
         <v>340</v>
       </c>
-      <c r="E211" s="29">
+      <c r="E211" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9361,7 +9365,7 @@
       <c r="D212" s="29">
         <v>340</v>
       </c>
-      <c r="E212" s="29">
+      <c r="E212" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9378,7 +9382,7 @@
       <c r="D213" s="29">
         <v>340</v>
       </c>
-      <c r="E213" s="29">
+      <c r="E213" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9395,7 +9399,7 @@
       <c r="D214" s="29">
         <v>340</v>
       </c>
-      <c r="E214" s="29">
+      <c r="E214" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9412,7 +9416,7 @@
       <c r="D215" s="29">
         <v>340</v>
       </c>
-      <c r="E215" s="29">
+      <c r="E215" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9429,7 +9433,7 @@
       <c r="D216" s="29">
         <v>340</v>
       </c>
-      <c r="E216" s="29">
+      <c r="E216" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9446,7 +9450,7 @@
       <c r="D217" s="29">
         <v>340</v>
       </c>
-      <c r="E217" s="29">
+      <c r="E217" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9463,7 +9467,7 @@
       <c r="D218" s="29">
         <v>340</v>
       </c>
-      <c r="E218" s="29">
+      <c r="E218" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9480,7 +9484,7 @@
       <c r="D219" s="29">
         <v>340</v>
       </c>
-      <c r="E219" s="29">
+      <c r="E219" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9497,7 +9501,7 @@
       <c r="D220" s="29">
         <v>340</v>
       </c>
-      <c r="E220" s="29">
+      <c r="E220" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9514,7 +9518,7 @@
       <c r="D221" s="29">
         <v>340</v>
       </c>
-      <c r="E221" s="29">
+      <c r="E221" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9531,7 +9535,7 @@
       <c r="D222" s="29">
         <v>340</v>
       </c>
-      <c r="E222" s="29">
+      <c r="E222" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9548,7 +9552,7 @@
       <c r="D223" s="29">
         <v>340</v>
       </c>
-      <c r="E223" s="29">
+      <c r="E223" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9565,7 +9569,7 @@
       <c r="D224" s="29">
         <v>340</v>
       </c>
-      <c r="E224" s="29">
+      <c r="E224" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9582,7 +9586,7 @@
       <c r="D225" s="29">
         <v>340</v>
       </c>
-      <c r="E225" s="29">
+      <c r="E225" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9599,7 +9603,7 @@
       <c r="D226" s="29">
         <v>340</v>
       </c>
-      <c r="E226" s="29">
+      <c r="E226" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9616,7 +9620,7 @@
       <c r="D227" s="29">
         <v>340</v>
       </c>
-      <c r="E227" s="29">
+      <c r="E227" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9633,7 +9637,7 @@
       <c r="D228" s="29">
         <v>340</v>
       </c>
-      <c r="E228" s="29">
+      <c r="E228" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9650,7 +9654,7 @@
       <c r="D229" s="29">
         <v>340</v>
       </c>
-      <c r="E229" s="29">
+      <c r="E229" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9667,7 +9671,7 @@
       <c r="D230" s="29">
         <v>340</v>
       </c>
-      <c r="E230" s="29">
+      <c r="E230" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9684,7 +9688,7 @@
       <c r="D231" s="29">
         <v>340</v>
       </c>
-      <c r="E231" s="29">
+      <c r="E231" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9701,7 +9705,7 @@
       <c r="D232" s="29">
         <v>340</v>
       </c>
-      <c r="E232" s="29">
+      <c r="E232" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9718,7 +9722,7 @@
       <c r="D233" s="29">
         <v>340</v>
       </c>
-      <c r="E233" s="29">
+      <c r="E233" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9735,7 +9739,7 @@
       <c r="D234" s="29">
         <v>340</v>
       </c>
-      <c r="E234" s="29">
+      <c r="E234" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9752,7 +9756,7 @@
       <c r="D235" s="29">
         <v>340</v>
       </c>
-      <c r="E235" s="29">
+      <c r="E235" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9769,7 +9773,7 @@
       <c r="D236" s="29">
         <v>340</v>
       </c>
-      <c r="E236" s="29">
+      <c r="E236" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9786,7 +9790,7 @@
       <c r="D237" s="29">
         <v>340</v>
       </c>
-      <c r="E237" s="29">
+      <c r="E237" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9803,7 +9807,7 @@
       <c r="D238" s="29">
         <v>340</v>
       </c>
-      <c r="E238" s="29">
+      <c r="E238" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9820,7 +9824,7 @@
       <c r="D239" s="29">
         <v>340</v>
       </c>
-      <c r="E239" s="29">
+      <c r="E239" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9837,7 +9841,7 @@
       <c r="D240" s="29">
         <v>340</v>
       </c>
-      <c r="E240" s="29">
+      <c r="E240" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9854,7 +9858,7 @@
       <c r="D241" s="29">
         <v>340</v>
       </c>
-      <c r="E241" s="29">
+      <c r="E241" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9871,7 +9875,7 @@
       <c r="D242" s="29">
         <v>340</v>
       </c>
-      <c r="E242" s="29">
+      <c r="E242" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9888,7 +9892,7 @@
       <c r="D243" s="29">
         <v>340</v>
       </c>
-      <c r="E243" s="29">
+      <c r="E243" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9905,7 +9909,7 @@
       <c r="D244" s="29">
         <v>340</v>
       </c>
-      <c r="E244" s="29">
+      <c r="E244" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9922,7 +9926,7 @@
       <c r="D245" s="29">
         <v>340</v>
       </c>
-      <c r="E245" s="29">
+      <c r="E245" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9939,7 +9943,7 @@
       <c r="D246" s="29">
         <v>340</v>
       </c>
-      <c r="E246" s="29">
+      <c r="E246" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9956,7 +9960,7 @@
       <c r="D247" s="29">
         <v>340</v>
       </c>
-      <c r="E247" s="29">
+      <c r="E247" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9973,7 +9977,7 @@
       <c r="D248" s="29">
         <v>340</v>
       </c>
-      <c r="E248" s="29">
+      <c r="E248" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -9990,7 +9994,7 @@
       <c r="D249" s="29">
         <v>340</v>
       </c>
-      <c r="E249" s="29">
+      <c r="E249" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10007,7 +10011,7 @@
       <c r="D250" s="29">
         <v>340</v>
       </c>
-      <c r="E250" s="29">
+      <c r="E250" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10024,7 +10028,7 @@
       <c r="D251" s="29">
         <v>340</v>
       </c>
-      <c r="E251" s="29">
+      <c r="E251" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10041,7 +10045,7 @@
       <c r="D252" s="29">
         <v>340</v>
       </c>
-      <c r="E252" s="29">
+      <c r="E252" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10058,7 +10062,7 @@
       <c r="D253" s="29">
         <v>340</v>
       </c>
-      <c r="E253" s="29">
+      <c r="E253" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10075,7 +10079,7 @@
       <c r="D254" s="29">
         <v>340</v>
       </c>
-      <c r="E254" s="29">
+      <c r="E254" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10092,7 +10096,7 @@
       <c r="D255" s="29">
         <v>340</v>
       </c>
-      <c r="E255" s="29">
+      <c r="E255" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10109,7 +10113,7 @@
       <c r="D256" s="29">
         <v>340</v>
       </c>
-      <c r="E256" s="29">
+      <c r="E256" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10126,7 +10130,7 @@
       <c r="D257" s="29">
         <v>340</v>
       </c>
-      <c r="E257" s="29">
+      <c r="E257" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10143,7 +10147,7 @@
       <c r="D258" s="29">
         <v>340</v>
       </c>
-      <c r="E258" s="29">
+      <c r="E258" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10160,7 +10164,7 @@
       <c r="D259" s="29">
         <v>340</v>
       </c>
-      <c r="E259" s="29">
+      <c r="E259" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10177,7 +10181,7 @@
       <c r="D260" s="29">
         <v>340</v>
       </c>
-      <c r="E260" s="29">
+      <c r="E260" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10194,7 +10198,7 @@
       <c r="D261" s="29">
         <v>340</v>
       </c>
-      <c r="E261" s="29">
+      <c r="E261" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10211,7 +10215,7 @@
       <c r="D262" s="29">
         <v>340</v>
       </c>
-      <c r="E262" s="29">
+      <c r="E262" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10228,7 +10232,7 @@
       <c r="D263" s="29">
         <v>340</v>
       </c>
-      <c r="E263" s="29">
+      <c r="E263" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10245,7 +10249,7 @@
       <c r="D264" s="29">
         <v>340</v>
       </c>
-      <c r="E264" s="29">
+      <c r="E264" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10262,7 +10266,7 @@
       <c r="D265" s="29">
         <v>340</v>
       </c>
-      <c r="E265" s="29">
+      <c r="E265" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10279,7 +10283,7 @@
       <c r="D266" s="29">
         <v>340</v>
       </c>
-      <c r="E266" s="29">
+      <c r="E266" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10296,7 +10300,7 @@
       <c r="D267" s="29">
         <v>340</v>
       </c>
-      <c r="E267" s="29">
+      <c r="E267" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10313,7 +10317,7 @@
       <c r="D268" s="29">
         <v>340</v>
       </c>
-      <c r="E268" s="29">
+      <c r="E268" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10330,7 +10334,7 @@
       <c r="D269" s="29">
         <v>340</v>
       </c>
-      <c r="E269" s="29">
+      <c r="E269" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10347,7 +10351,7 @@
       <c r="D270" s="29">
         <v>340</v>
       </c>
-      <c r="E270" s="29">
+      <c r="E270" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10364,7 +10368,7 @@
       <c r="D271" s="29">
         <v>340</v>
       </c>
-      <c r="E271" s="29">
+      <c r="E271" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10381,7 +10385,7 @@
       <c r="D272" s="29">
         <v>340</v>
       </c>
-      <c r="E272" s="29">
+      <c r="E272" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10398,7 +10402,7 @@
       <c r="D273" s="29">
         <v>340</v>
       </c>
-      <c r="E273" s="29">
+      <c r="E273" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10415,7 +10419,7 @@
       <c r="D274" s="29">
         <v>340</v>
       </c>
-      <c r="E274" s="29">
+      <c r="E274" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10432,7 +10436,7 @@
       <c r="D275" s="29">
         <v>340</v>
       </c>
-      <c r="E275" s="29">
+      <c r="E275" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10449,7 +10453,7 @@
       <c r="D276" s="29">
         <v>340</v>
       </c>
-      <c r="E276" s="29">
+      <c r="E276" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10466,7 +10470,7 @@
       <c r="D277" s="29">
         <v>340</v>
       </c>
-      <c r="E277" s="29">
+      <c r="E277" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10483,7 +10487,7 @@
       <c r="D278" s="29">
         <v>340</v>
       </c>
-      <c r="E278" s="29">
+      <c r="E278" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10500,7 +10504,7 @@
       <c r="D279" s="29">
         <v>340</v>
       </c>
-      <c r="E279" s="29">
+      <c r="E279" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10517,7 +10521,7 @@
       <c r="D280" s="29">
         <v>340</v>
       </c>
-      <c r="E280" s="29">
+      <c r="E280" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10534,7 +10538,7 @@
       <c r="D281" s="29">
         <v>340</v>
       </c>
-      <c r="E281" s="29">
+      <c r="E281" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10551,7 +10555,7 @@
       <c r="D282" s="29">
         <v>340</v>
       </c>
-      <c r="E282" s="29">
+      <c r="E282" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10568,7 +10572,7 @@
       <c r="D283" s="29">
         <v>340</v>
       </c>
-      <c r="E283" s="29">
+      <c r="E283" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10585,7 +10589,7 @@
       <c r="D284" s="29">
         <v>340</v>
       </c>
-      <c r="E284" s="29">
+      <c r="E284" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10602,7 +10606,7 @@
       <c r="D285" s="29">
         <v>340</v>
       </c>
-      <c r="E285" s="29">
+      <c r="E285" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10619,7 +10623,7 @@
       <c r="D286" s="29">
         <v>340</v>
       </c>
-      <c r="E286" s="29">
+      <c r="E286" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10636,7 +10640,7 @@
       <c r="D287" s="29">
         <v>340</v>
       </c>
-      <c r="E287" s="29">
+      <c r="E287" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10653,7 +10657,7 @@
       <c r="D288" s="29">
         <v>340</v>
       </c>
-      <c r="E288" s="29">
+      <c r="E288" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10670,7 +10674,7 @@
       <c r="D289" s="29">
         <v>340</v>
       </c>
-      <c r="E289" s="29">
+      <c r="E289" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10687,7 +10691,7 @@
       <c r="D290" s="29">
         <v>340</v>
       </c>
-      <c r="E290" s="29">
+      <c r="E290" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10704,7 +10708,7 @@
       <c r="D291" s="29">
         <v>340</v>
       </c>
-      <c r="E291" s="29">
+      <c r="E291" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10721,7 +10725,7 @@
       <c r="D292" s="29">
         <v>340</v>
       </c>
-      <c r="E292" s="29">
+      <c r="E292" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10738,7 +10742,7 @@
       <c r="D293" s="29">
         <v>340</v>
       </c>
-      <c r="E293" s="29">
+      <c r="E293" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10755,7 +10759,7 @@
       <c r="D294" s="29">
         <v>340</v>
       </c>
-      <c r="E294" s="29">
+      <c r="E294" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10772,7 +10776,7 @@
       <c r="D295" s="29">
         <v>340</v>
       </c>
-      <c r="E295" s="29">
+      <c r="E295" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10789,7 +10793,7 @@
       <c r="D296" s="29">
         <v>340</v>
       </c>
-      <c r="E296" s="29">
+      <c r="E296" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10806,7 +10810,7 @@
       <c r="D297" s="29">
         <v>340</v>
       </c>
-      <c r="E297" s="29">
+      <c r="E297" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10823,7 +10827,7 @@
       <c r="D298" s="29">
         <v>340</v>
       </c>
-      <c r="E298" s="29">
+      <c r="E298" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10840,7 +10844,7 @@
       <c r="D299" s="29">
         <v>340</v>
       </c>
-      <c r="E299" s="29">
+      <c r="E299" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10857,7 +10861,7 @@
       <c r="D300" s="29">
         <v>340</v>
       </c>
-      <c r="E300" s="29">
+      <c r="E300" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10874,7 +10878,7 @@
       <c r="D301" s="29">
         <v>340</v>
       </c>
-      <c r="E301" s="29">
+      <c r="E301" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10891,7 +10895,7 @@
       <c r="D302" s="29">
         <v>340</v>
       </c>
-      <c r="E302" s="29">
+      <c r="E302" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10908,7 +10912,7 @@
       <c r="D303" s="29">
         <v>340</v>
       </c>
-      <c r="E303" s="29">
+      <c r="E303" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10925,7 +10929,7 @@
       <c r="D304" s="29">
         <v>340</v>
       </c>
-      <c r="E304" s="29">
+      <c r="E304" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10942,7 +10946,7 @@
       <c r="D305" s="29">
         <v>340</v>
       </c>
-      <c r="E305" s="29">
+      <c r="E305" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10959,7 +10963,7 @@
       <c r="D306" s="29">
         <v>340</v>
       </c>
-      <c r="E306" s="29">
+      <c r="E306" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10976,7 +10980,7 @@
       <c r="D307" s="29">
         <v>340</v>
       </c>
-      <c r="E307" s="29">
+      <c r="E307" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -10993,7 +10997,7 @@
       <c r="D308" s="29">
         <v>340</v>
       </c>
-      <c r="E308" s="29">
+      <c r="E308" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -11010,7 +11014,7 @@
       <c r="D309" s="29">
         <v>340</v>
       </c>
-      <c r="E309" s="29">
+      <c r="E309" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -11027,7 +11031,7 @@
       <c r="D310" s="29">
         <v>340</v>
       </c>
-      <c r="E310" s="29">
+      <c r="E310" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -11044,7 +11048,7 @@
       <c r="D311" s="29">
         <v>340</v>
       </c>
-      <c r="E311" s="29">
+      <c r="E311" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -11061,7 +11065,7 @@
       <c r="D312" s="29">
         <v>340</v>
       </c>
-      <c r="E312" s="29">
+      <c r="E312" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -11078,7 +11082,7 @@
       <c r="D313" s="29">
         <v>340</v>
       </c>
-      <c r="E313" s="29">
+      <c r="E313" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -11095,7 +11099,7 @@
       <c r="D314" s="29">
         <v>340</v>
       </c>
-      <c r="E314" s="29">
+      <c r="E314" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -11112,7 +11116,7 @@
       <c r="D315" s="29">
         <v>340</v>
       </c>
-      <c r="E315" s="29">
+      <c r="E315" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -11129,7 +11133,7 @@
       <c r="D316" s="29">
         <v>340</v>
       </c>
-      <c r="E316" s="29">
+      <c r="E316" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -11146,7 +11150,7 @@
       <c r="D317" s="29">
         <v>340</v>
       </c>
-      <c r="E317" s="29">
+      <c r="E317" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -11163,7 +11167,7 @@
       <c r="D318" s="29">
         <v>340</v>
       </c>
-      <c r="E318" s="29">
+      <c r="E318" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -11180,7 +11184,7 @@
       <c r="D319" s="29">
         <v>340</v>
       </c>
-      <c r="E319" s="29">
+      <c r="E319" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -11197,7 +11201,7 @@
       <c r="D320" s="29">
         <v>340</v>
       </c>
-      <c r="E320" s="29">
+      <c r="E320" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -11214,7 +11218,7 @@
       <c r="D321" s="29">
         <v>340</v>
       </c>
-      <c r="E321" s="29">
+      <c r="E321" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -11231,7 +11235,7 @@
       <c r="D322" s="29">
         <v>340</v>
       </c>
-      <c r="E322" s="29">
+      <c r="E322" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -11248,7 +11252,7 @@
       <c r="D323" s="29">
         <v>340</v>
       </c>
-      <c r="E323" s="29">
+      <c r="E323" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -11265,7 +11269,7 @@
       <c r="D324" s="29">
         <v>340</v>
       </c>
-      <c r="E324" s="29">
+      <c r="E324" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -11282,7 +11286,7 @@
       <c r="D325" s="29">
         <v>340</v>
       </c>
-      <c r="E325" s="29">
+      <c r="E325" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -11299,7 +11303,7 @@
       <c r="D326" s="29">
         <v>340</v>
       </c>
-      <c r="E326" s="29">
+      <c r="E326" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -11316,7 +11320,7 @@
       <c r="D327" s="29">
         <v>340</v>
       </c>
-      <c r="E327" s="29">
+      <c r="E327" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -11333,7 +11337,7 @@
       <c r="D328" s="29">
         <v>340</v>
       </c>
-      <c r="E328" s="29">
+      <c r="E328" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -11350,7 +11354,7 @@
       <c r="D329" s="29">
         <v>340</v>
       </c>
-      <c r="E329" s="29">
+      <c r="E329" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -11367,7 +11371,7 @@
       <c r="D330" s="29">
         <v>340</v>
       </c>
-      <c r="E330" s="29">
+      <c r="E330" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -11384,7 +11388,7 @@
       <c r="D331" s="29">
         <v>340</v>
       </c>
-      <c r="E331" s="29">
+      <c r="E331" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -11401,7 +11405,7 @@
       <c r="D332" s="29">
         <v>340</v>
       </c>
-      <c r="E332" s="29">
+      <c r="E332" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -11418,7 +11422,7 @@
       <c r="D333" s="29">
         <v>340</v>
       </c>
-      <c r="E333" s="29">
+      <c r="E333" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -11435,7 +11439,7 @@
       <c r="D334" s="29">
         <v>340</v>
       </c>
-      <c r="E334" s="29">
+      <c r="E334" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -11452,7 +11456,7 @@
       <c r="D335" s="29">
         <v>340</v>
       </c>
-      <c r="E335" s="29">
+      <c r="E335" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -11469,7 +11473,7 @@
       <c r="D336" s="29">
         <v>340</v>
       </c>
-      <c r="E336" s="29">
+      <c r="E336" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -11486,7 +11490,7 @@
       <c r="D337" s="29">
         <v>340</v>
       </c>
-      <c r="E337" s="29">
+      <c r="E337" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
@@ -11503,12 +11507,13 @@
       <c r="D338" s="29">
         <v>340</v>
       </c>
-      <c r="E338" s="29">
+      <c r="E338" s="30">
         <v>19.883040900000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
